--- a/apps/load_data/2021/11/PLMOVMAE.xlsx
+++ b/apps/load_data/2021/11/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2021\HHY1121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021\HHY1121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E950E91-A993-42B9-B08F-56A449BBD4D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB63659-B6B2-443B-8480-2D4D9896443B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$270</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$270</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11676" uniqueCount="3461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11656" uniqueCount="3458">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7306,9 +7307,6 @@
     <t>0071A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8608,9 +8606,6 @@
     <t>0004A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8915,9 +8910,6 @@
   </si>
   <si>
     <t>0133A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10411,7 +10403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11251,10 +11243,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD172" sqref="AC172:AD234"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43468,12 +43462,7 @@
       <c r="AB172" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -43526,16 +43515,16 @@
         <v>21</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="BI172" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="BI172" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="BM172" s="1" t="s">
         <v>118</v>
@@ -43550,13 +43539,13 @@
         <v>168</v>
       </c>
       <c r="BR172" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BS172" s="3">
         <v>36225</v>
       </c>
       <c r="BT172" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BU172" s="1" t="s">
         <v>122</v>
@@ -43577,19 +43566,19 @@
         <v>112</v>
       </c>
       <c r="CC172" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="CD172" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="CD172" s="1" t="s">
+      <c r="CE172" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="CE172" s="1" t="s">
+      <c r="CG172" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="CG172" s="1" t="s">
+      <c r="CH172" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>130</v>
@@ -43627,19 +43616,19 @@
         <v>96</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="Q173" s="3">
         <v>27241</v>
@@ -43668,12 +43657,7 @@
       <c r="AB173" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43720,7 +43704,7 @@
         <v>112</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BB173" s="1">
         <v>11</v>
@@ -43729,13 +43713,13 @@
         <v>21</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BI173" s="1" t="s">
         <v>1771</v>
@@ -43750,13 +43734,13 @@
         <v>102</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BS173" s="3">
         <v>36949</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -43780,16 +43764,16 @@
         <v>112</v>
       </c>
       <c r="CC173" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="CD173" s="1" t="s">
         <v>2113</v>
       </c>
       <c r="CE173" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="CG173" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="CG173" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="CH173" s="1" t="s">
         <v>1776</v>
@@ -43830,19 +43814,19 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2450</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="Q174" s="3">
         <v>25223</v>
@@ -43871,12 +43855,7 @@
       <c r="AB174" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43923,7 +43902,7 @@
         <v>112</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BB174" s="1">
         <v>11</v>
@@ -43932,13 +43911,13 @@
         <v>21</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>1711</v>
@@ -43956,13 +43935,13 @@
         <v>168</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BS174" s="3">
         <v>36825</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -43986,16 +43965,16 @@
         <v>112</v>
       </c>
       <c r="CC174" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="CD174" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="CD174" s="1" t="s">
+      <c r="CE174" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="CE174" s="1" t="s">
+      <c r="CG174" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2462</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>1718</v>
@@ -44036,19 +44015,19 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="Q175" s="3">
         <v>27018</v>
@@ -44074,12 +44053,7 @@
       <c r="AA175" s="1">
         <v>0</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -44129,7 +44103,7 @@
         <v>112</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BB175" s="1">
         <v>11</v>
@@ -44138,13 +44112,13 @@
         <v>21</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>118</v>
@@ -44153,7 +44127,7 @@
         <v>106</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -44171,16 +44145,16 @@
         <v>112</v>
       </c>
       <c r="CC175" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="CD175" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="CG175" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="CG175" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="CH175" s="1" t="s">
         <v>130</v>
@@ -44221,19 +44195,19 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="Q176" s="3">
         <v>29037</v>
@@ -44262,12 +44236,7 @@
       <c r="AB176" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -44317,7 +44286,7 @@
         <v>112</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BB176" s="1">
         <v>11</v>
@@ -44326,13 +44295,13 @@
         <v>21</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>118</v>
@@ -44341,7 +44310,7 @@
         <v>106</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -44362,13 +44331,13 @@
         <v>712</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CG176" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>130</v>
@@ -44409,19 +44378,19 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="Q177" s="3">
         <v>26647</v>
@@ -44447,12 +44416,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -44502,7 +44466,7 @@
         <v>112</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BB177" s="1">
         <v>11</v>
@@ -44511,13 +44475,13 @@
         <v>21</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>1122</v>
@@ -44529,7 +44493,7 @@
         <v>106</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44547,16 +44511,16 @@
         <v>112</v>
       </c>
       <c r="CC177" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="CD177" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="CD177" s="1" t="s">
-        <v>2493</v>
-      </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>1127</v>
@@ -44597,19 +44561,19 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2498</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="Q178" s="3">
         <v>25405</v>
@@ -44641,12 +44605,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44693,7 +44652,7 @@
         <v>112</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BB178" s="1">
         <v>11</v>
@@ -44702,13 +44661,13 @@
         <v>21</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>373</v>
@@ -44723,13 +44682,13 @@
         <v>119</v>
       </c>
       <c r="BR178" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BS178" s="3">
         <v>35243</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -44747,16 +44706,16 @@
         <v>112</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="CD178" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="CD178" s="1" t="s">
+      <c r="CE178" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2508</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>379</v>
@@ -44797,19 +44756,19 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2511</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="Q179" s="3">
         <v>28845</v>
@@ -44835,12 +44794,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44890,7 +44844,7 @@
         <v>112</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BB179" s="1">
         <v>11</v>
@@ -44899,13 +44853,13 @@
         <v>21</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>612</v>
@@ -44917,7 +44871,7 @@
         <v>106</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -44935,16 +44889,16 @@
         <v>112</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>619</v>
@@ -44985,19 +44939,19 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="Q180" s="3">
         <v>21425</v>
@@ -45023,12 +44977,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -45078,7 +45027,7 @@
         <v>112</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BB180" s="1">
         <v>11</v>
@@ -45087,13 +45036,13 @@
         <v>21</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>778</v>
@@ -45108,7 +45057,7 @@
         <v>168</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -45126,16 +45075,16 @@
         <v>112</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>784</v>
@@ -45152,13 +45101,13 @@
         <v>88</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>112</v>
@@ -45170,25 +45119,25 @@
         <v>94</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="Q181" s="3">
         <v>23286</v>
@@ -45217,12 +45166,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -45272,7 +45216,7 @@
         <v>112</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BB181" s="1">
         <v>11</v>
@@ -45281,13 +45225,13 @@
         <v>21</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BM181" s="1" t="s">
         <v>118</v>
@@ -45296,7 +45240,7 @@
         <v>106</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45317,16 +45261,16 @@
         <v>112</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>130</v>
@@ -45367,19 +45311,19 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="Q182" s="3">
         <v>26907</v>
@@ -45405,12 +45349,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2427</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>107</v>
       </c>
@@ -45457,7 +45396,7 @@
         <v>112</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BB182" s="1">
         <v>11</v>
@@ -45466,16 +45405,16 @@
         <v>21</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2556</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>118</v>
@@ -45487,13 +45426,13 @@
         <v>119</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BS182" s="3">
         <v>35950</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45511,19 +45450,19 @@
         <v>112</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>1908</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>130</v>
@@ -45561,19 +45500,19 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="Q183" s="3">
         <v>28642</v>
@@ -45651,7 +45590,7 @@
         <v>112</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BB183" s="1">
         <v>11</v>
@@ -45660,13 +45599,13 @@
         <v>21</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>1947</v>
@@ -45681,7 +45620,7 @@
         <v>168</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45699,16 +45638,16 @@
         <v>112</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>435</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>1951</v>
@@ -45749,19 +45688,19 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="Q184" s="3">
         <v>28239</v>
@@ -45833,7 +45772,7 @@
         <v>112</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BB184" s="1">
         <v>11</v>
@@ -45842,16 +45781,16 @@
         <v>21</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>118</v>
@@ -45863,13 +45802,13 @@
         <v>240</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BS184" s="3">
         <v>36099</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -45887,19 +45826,19 @@
         <v>112</v>
       </c>
       <c r="CC184" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="CD184" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="CD184" s="1" t="s">
+      <c r="CE184" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="CG184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>130</v>
@@ -45937,19 +45876,19 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="Q185" s="3">
         <v>25589</v>
@@ -46021,7 +45960,7 @@
         <v>112</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BB185" s="1">
         <v>11</v>
@@ -46030,16 +45969,16 @@
         <v>21</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="BM185" s="1" t="s">
         <v>118</v>
@@ -46051,13 +45990,13 @@
         <v>102</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BS185" s="3">
         <v>37735</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -46075,19 +46014,19 @@
         <v>112</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="CG185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>130</v>
@@ -46125,19 +46064,19 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="Q186" s="3">
         <v>29170</v>
@@ -46212,7 +46151,7 @@
         <v>112</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BB186" s="1">
         <v>11</v>
@@ -46221,13 +46160,13 @@
         <v>21</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>391</v>
@@ -46239,7 +46178,7 @@
         <v>106</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46257,16 +46196,16 @@
         <v>112</v>
       </c>
       <c r="CC186" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="CD186" s="1" t="s">
         <v>918</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="CG186" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>399</v>
@@ -46289,7 +46228,7 @@
         <v>90</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>112</v>
@@ -46307,19 +46246,19 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="Q187" s="3">
         <v>27250</v>
@@ -46352,7 +46291,7 @@
         <v>107</v>
       </c>
       <c r="AG187" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="AH187" s="1" t="s">
         <v>2027</v>
@@ -46397,7 +46336,7 @@
         <v>112</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BB187" s="1">
         <v>11</v>
@@ -46406,13 +46345,13 @@
         <v>21</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>118</v>
@@ -46421,7 +46360,7 @@
         <v>106</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46430,7 +46369,7 @@
         <v>0</v>
       </c>
       <c r="BZ187" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="CA187" s="1" t="s">
         <v>124</v>
@@ -46442,13 +46381,13 @@
         <v>1685</v>
       </c>
       <c r="CD187" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="CE187" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>130</v>
@@ -46489,19 +46428,19 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2630</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2631</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="Q188" s="3">
         <v>27999</v>
@@ -46576,7 +46515,7 @@
         <v>112</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BB188" s="1">
         <v>11</v>
@@ -46585,16 +46524,16 @@
         <v>21</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -46606,13 +46545,13 @@
         <v>102</v>
       </c>
       <c r="BR188" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BS188" s="3">
         <v>43602</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46636,13 +46575,13 @@
         <v>1008</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="CG188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>130</v>
@@ -46680,19 +46619,19 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2642</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2644</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="Q189" s="3">
         <v>29305</v>
@@ -46767,7 +46706,7 @@
         <v>112</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BB189" s="1">
         <v>11</v>
@@ -46776,13 +46715,13 @@
         <v>21</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BI189" s="1" t="s">
         <v>612</v>
@@ -46794,7 +46733,7 @@
         <v>106</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46812,16 +46751,16 @@
         <v>112</v>
       </c>
       <c r="CC189" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="CD189" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="CD189" s="1" t="s">
+      <c r="CE189" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>619</v>
@@ -46862,19 +46801,19 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="Q190" s="3">
         <v>23125</v>
@@ -46910,7 +46849,7 @@
         <v>42247</v>
       </c>
       <c r="AD190" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="AF190" s="1" t="s">
         <v>107</v>
@@ -46964,16 +46903,16 @@
         <v>21</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2661</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -46985,13 +46924,13 @@
         <v>240</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BS190" s="3">
         <v>36580</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -47012,7 +46951,7 @@
         <v>112</v>
       </c>
       <c r="CC190" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="CD190" s="1" t="s">
         <v>309</v>
@@ -47021,10 +46960,10 @@
         <v>1716</v>
       </c>
       <c r="CG190" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2666</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -47062,19 +47001,19 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="Q191" s="3">
         <v>30023</v>
@@ -47152,13 +47091,13 @@
         <v>21</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>1947</v>
@@ -47173,13 +47112,13 @@
         <v>119</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BS191" s="3">
         <v>37747</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -47203,10 +47142,10 @@
         <v>699</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>1951</v>
@@ -47247,19 +47186,19 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2679</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="Q192" s="3">
         <v>26205</v>
@@ -47340,13 +47279,13 @@
         <v>21</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -47355,7 +47294,7 @@
         <v>106</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47373,16 +47312,16 @@
         <v>112</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2686</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2687</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>130</v>
@@ -47423,19 +47362,19 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2689</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2690</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="Q193" s="3">
         <v>31662</v>
@@ -47519,13 +47458,13 @@
         <v>21</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>1122</v>
@@ -47540,7 +47479,7 @@
         <v>168</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47558,16 +47497,16 @@
         <v>112</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2697</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2698</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>1127</v>
@@ -47608,19 +47547,19 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2701</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="Q194" s="3">
         <v>29117</v>
@@ -47698,16 +47637,16 @@
         <v>21</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47719,13 +47658,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="BS194" s="3">
         <v>37334</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47746,16 +47685,16 @@
         <v>528</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2710</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>130</v>
@@ -47793,19 +47732,19 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2714</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="Q195" s="3">
         <v>30007</v>
@@ -47883,16 +47822,16 @@
         <v>21</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2717</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2718</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47904,13 +47843,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="BS195" s="3">
         <v>37904</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47919,7 +47858,7 @@
         <v>0</v>
       </c>
       <c r="BZ195" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="CA195" s="1" t="s">
         <v>124</v>
@@ -47931,16 +47870,16 @@
         <v>1008</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -47960,7 +47899,7 @@
         <v>90</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>112</v>
@@ -47978,19 +47917,19 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2728</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="Q196" s="3">
         <v>26221</v>
@@ -48068,13 +48007,13 @@
         <v>21</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -48086,13 +48025,13 @@
         <v>119</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BS196" s="3">
         <v>36111</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -48101,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="BZ196" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="CA196" s="1" t="s">
         <v>124</v>
@@ -48110,16 +48049,16 @@
         <v>112</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="CE196" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="CG196" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>130</v>
@@ -48160,19 +48099,19 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="Q197" s="3">
         <v>27571</v>
@@ -48250,16 +48189,16 @@
         <v>21</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2742</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -48271,13 +48210,13 @@
         <v>119</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BS197" s="3">
         <v>37785</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -48295,19 +48234,19 @@
         <v>112</v>
       </c>
       <c r="CC197" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="CD197" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="CD197" s="1" t="s">
+      <c r="CE197" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="CG197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2749</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2750</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>130</v>
@@ -48321,10 +48260,10 @@
         <v>88</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>154</v>
@@ -48339,16 +48278,16 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48426,7 +48365,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -48441,7 +48380,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>124</v>
@@ -48450,7 +48389,7 @@
         <v>112</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="CG198" s="1" t="s">
         <v>130</v>
@@ -48494,19 +48433,19 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2757</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2758</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="Q199" s="3">
         <v>30993</v>
@@ -48581,7 +48520,7 @@
         <v>112</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="BB199" s="1">
         <v>11</v>
@@ -48590,13 +48529,13 @@
         <v>21</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>118</v>
@@ -48605,7 +48544,7 @@
         <v>106</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48623,16 +48562,16 @@
         <v>112</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2766</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2767</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>130</v>
@@ -48673,19 +48612,19 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2769</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2770</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="Q200" s="3">
         <v>30065</v>
@@ -48760,7 +48699,7 @@
         <v>112</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BB200" s="1">
         <v>11</v>
@@ -48769,13 +48708,13 @@
         <v>21</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>1947</v>
@@ -48787,7 +48726,7 @@
         <v>106</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48805,16 +48744,16 @@
         <v>112</v>
       </c>
       <c r="CC200" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="CD200" s="1" t="s">
         <v>1178</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="CG200" s="1" t="s">
         <v>2776</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2777</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>1951</v>
@@ -48855,19 +48794,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2779</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2780</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="Q201" s="3">
         <v>30033</v>
@@ -48942,7 +48881,7 @@
         <v>112</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BB201" s="1">
         <v>11</v>
@@ -48951,13 +48890,13 @@
         <v>21</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>118</v>
@@ -48966,7 +48905,7 @@
         <v>106</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48987,13 +48926,13 @@
         <v>1178</v>
       </c>
       <c r="CD201" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>130</v>
@@ -49034,19 +48973,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2790</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2791</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="Q202" s="3">
         <v>29411</v>
@@ -49121,7 +49060,7 @@
         <v>112</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BB202" s="1">
         <v>11</v>
@@ -49130,13 +49069,13 @@
         <v>21</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1947</v>
@@ -49154,13 +49093,13 @@
         <v>168</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="BS202" s="3">
         <v>37513</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49178,16 +49117,16 @@
         <v>112</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2799</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2800</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1951</v>
@@ -49228,19 +49167,19 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2802</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2803</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="Q203" s="3">
         <v>32173</v>
@@ -49318,16 +49257,16 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2806</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2807</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -49339,13 +49278,13 @@
         <v>102</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="BS203" s="3">
         <v>41024</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49363,19 +49302,19 @@
         <v>112</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="CG203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2814</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>130</v>
@@ -49413,10 +49352,10 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2815</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49446,7 +49385,7 @@
         <v>107</v>
       </c>
       <c r="AG204" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="AH204" s="1" t="s">
         <v>2027</v>
@@ -49491,7 +49430,7 @@
         <v>112</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BB204" s="1">
         <v>2</v>
@@ -49500,7 +49439,7 @@
         <v>21</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -49527,7 +49466,7 @@
         <v>112</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="CG204" s="1" t="s">
         <v>1940</v>
@@ -49571,19 +49510,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2820</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2821</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="Q205" s="3">
         <v>30408</v>
@@ -49655,7 +49594,7 @@
         <v>112</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="BB205" s="1">
         <v>11</v>
@@ -49664,13 +49603,13 @@
         <v>21</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>778</v>
@@ -49685,13 +49624,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="BS205" s="3">
         <v>37336</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49709,16 +49648,16 @@
         <v>112</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2828</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2829</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2830</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2831</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>784</v>
@@ -49759,19 +49698,19 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2833</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2834</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="Q206" s="3">
         <v>28132</v>
@@ -49846,7 +49785,7 @@
         <v>112</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="BB206" s="1">
         <v>11</v>
@@ -49855,16 +49794,16 @@
         <v>21</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="BI206" s="1" t="s">
         <v>2838</v>
-      </c>
-      <c r="BI206" s="1" t="s">
-        <v>2839</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -49873,7 +49812,7 @@
         <v>106</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49891,19 +49830,19 @@
         <v>112</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2842</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="CG206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2844</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2845</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -49941,19 +49880,19 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2847</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2848</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="Q207" s="3">
         <v>31743</v>
@@ -50037,13 +49976,13 @@
         <v>21</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>118</v>
@@ -50052,7 +49991,7 @@
         <v>106</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -50070,16 +50009,16 @@
         <v>112</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2854</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2855</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2856</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>130</v>
@@ -50120,19 +50059,19 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2857</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2858</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2859</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="Q208" s="3">
         <v>23750</v>
@@ -50161,12 +50100,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2861</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>107</v>
       </c>
@@ -50216,7 +50150,7 @@
         <v>112</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="BB208" s="1">
         <v>11</v>
@@ -50225,16 +50159,16 @@
         <v>21</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="BI208" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -50243,7 +50177,7 @@
         <v>106</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -50255,7 +50189,7 @@
         <v>111</v>
       </c>
       <c r="BZ208" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="CA208" s="1" t="s">
         <v>124</v>
@@ -50267,16 +50201,16 @@
         <v>1231</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="CE208" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="CG208" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2869</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2870</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2871</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -50314,10 +50248,10 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -50344,7 +50278,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>387</v>
@@ -50398,10 +50332,10 @@
         <v>112</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="210" spans="1:87" x14ac:dyDescent="0.25">
@@ -50412,13 +50346,13 @@
         <v>88</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>2534</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>112</v>
@@ -50430,16 +50364,16 @@
         <v>94</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -50466,7 +50400,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>387</v>
@@ -50511,7 +50445,7 @@
         <v>0</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>124</v>
@@ -50520,10 +50454,10 @@
         <v>112</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -50558,10 +50492,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -50588,7 +50522,7 @@
         <v>107</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>387</v>
@@ -50642,10 +50576,10 @@
         <v>112</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50662,7 +50596,7 @@
         <v>131</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>92</v>
@@ -50674,16 +50608,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50755,7 +50689,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>124</v>
@@ -50764,10 +50698,10 @@
         <v>112</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50802,10 +50736,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -50886,10 +50820,10 @@
         <v>112</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -50906,7 +50840,7 @@
         <v>131</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -50918,16 +50852,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -50999,7 +50933,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>124</v>
@@ -51008,10 +50942,10 @@
         <v>112</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -51046,10 +50980,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>111</v>
@@ -51130,10 +51064,10 @@
         <v>112</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51168,19 +51102,19 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2894</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2896</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="Q216" s="3">
         <v>26043</v>
@@ -51206,12 +51140,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2861</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -51264,13 +51193,13 @@
         <v>21</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>391</v>
@@ -51285,13 +51214,13 @@
         <v>102</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="BS216" s="3">
         <v>36306</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51309,16 +51238,16 @@
         <v>112</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="CD216" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="CE216" s="1" t="s">
         <v>2902</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2903</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2905</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>399</v>
@@ -51359,19 +51288,19 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2906</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2907</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2908</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="Q217" s="3">
         <v>29945</v>
@@ -51397,12 +51326,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2861</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -51458,13 +51382,13 @@
         <v>21</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>118</v>
@@ -51473,7 +51397,7 @@
         <v>106</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51491,16 +51415,16 @@
         <v>112</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="CG217" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>130</v>
@@ -51541,19 +51465,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2916</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2917</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2918</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="Q218" s="3">
         <v>29034</v>
@@ -51582,12 +51506,7 @@
       <c r="AB218" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2861</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -51640,13 +51559,13 @@
         <v>21</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>391</v>
@@ -51661,13 +51580,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="BS218" s="3">
         <v>38234</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51685,16 +51604,16 @@
         <v>112</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>399</v>
@@ -51735,19 +51654,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2927</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2928</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2929</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="Q219" s="3">
         <v>29062</v>
@@ -51773,12 +51692,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2861</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51834,13 +51748,13 @@
         <v>21</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>612</v>
@@ -51852,7 +51766,7 @@
         <v>106</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51870,16 +51784,16 @@
         <v>112</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="CD219" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2934</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2935</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2937</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>619</v>
@@ -51920,19 +51834,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2938</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2940</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="Q220" s="3">
         <v>29181</v>
@@ -51958,12 +51872,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2861</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -52016,13 +51925,13 @@
         <v>21</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>612</v>
@@ -52037,13 +51946,13 @@
         <v>240</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="BS220" s="3">
         <v>37069</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -52064,13 +51973,13 @@
         <v>795</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="CG220" s="1" t="s">
         <v>2946</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2948</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>619</v>
@@ -52111,19 +52020,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2949</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2951</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="Q221" s="3">
         <v>30033</v>
@@ -52149,12 +52058,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2861</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -52210,13 +52114,13 @@
         <v>21</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>778</v>
@@ -52228,7 +52132,7 @@
         <v>106</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52246,16 +52150,16 @@
         <v>112</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2956</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2957</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2959</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>784</v>
@@ -52296,19 +52200,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2960</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2962</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="Q222" s="3">
         <v>26843</v>
@@ -52334,12 +52238,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2964</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>107</v>
       </c>
@@ -52386,7 +52285,7 @@
         <v>112</v>
       </c>
       <c r="AZ222" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BB222" s="1">
         <v>11</v>
@@ -52395,16 +52294,16 @@
         <v>21</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>118</v>
@@ -52416,13 +52315,13 @@
         <v>240</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BS222" s="3">
         <v>35125</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52440,19 +52339,19 @@
         <v>112</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CD222" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="CG222" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="CH222" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>130</v>
@@ -52490,19 +52389,19 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="Q223" s="3">
         <v>25903</v>
@@ -52586,19 +52485,19 @@
         <v>21</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52616,16 +52515,16 @@
         <v>112</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="CG223" s="1" t="s">
         <v>2982</v>
-      </c>
-      <c r="CD223" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2984</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2985</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>130</v>
@@ -52666,19 +52565,19 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="Q224" s="3">
         <v>28577</v>
@@ -52759,16 +52658,16 @@
         <v>21</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>118</v>
@@ -52777,7 +52676,7 @@
         <v>106</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52798,16 +52697,16 @@
         <v>342</v>
       </c>
       <c r="CD224" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="CE224" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="CG224" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="CH224" s="1" t="s">
         <v>2994</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2995</v>
-      </c>
-      <c r="CG224" s="1" t="s">
-        <v>2996</v>
-      </c>
-      <c r="CH224" s="1" t="s">
-        <v>2997</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>130</v>
@@ -52845,19 +52744,19 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="Q225" s="3">
         <v>23039</v>
@@ -52938,13 +52837,13 @@
         <v>21</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>464</v>
@@ -52959,13 +52858,13 @@
         <v>240</v>
       </c>
       <c r="BR225" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BS225" s="3">
         <v>34307</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52983,16 +52882,16 @@
         <v>112</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>435</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CG225" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>471</v>
@@ -53036,10 +52935,10 @@
         <v>266</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N226" s="1" t="s">
         <v>268</v>
@@ -53072,7 +52971,7 @@
         <v>42582</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>107</v>
@@ -53129,13 +53028,13 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BI226" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>118</v>
@@ -53180,7 +53079,7 @@
         <v>280</v>
       </c>
       <c r="CG226" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>827</v>
@@ -53203,7 +53102,7 @@
         <v>90</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>92</v>
@@ -53215,22 +53114,22 @@
         <v>94</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="Q227" s="3">
         <v>17060</v>
@@ -53266,13 +53165,13 @@
         <v>42628</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="AH227" s="1" t="s">
         <v>140</v>
@@ -53317,22 +53216,22 @@
         <v>112</v>
       </c>
       <c r="AZ227" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD227" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="BH227" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="BI227" s="1" t="s">
         <v>3023</v>
-      </c>
-      <c r="BB227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD227" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="BH227" s="1" t="s">
-        <v>3025</v>
-      </c>
-      <c r="BI227" s="1" t="s">
-        <v>3026</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53341,7 +53240,7 @@
         <v>106</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53350,7 +53249,7 @@
         <v>0</v>
       </c>
       <c r="BZ227" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="CA227" s="1" t="s">
         <v>124</v>
@@ -53365,13 +53264,13 @@
         <v>126</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -53385,13 +53284,13 @@
         <v>88</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>112</v>
@@ -53403,22 +53302,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="Q228" s="3">
         <v>26864</v>
@@ -53451,7 +53350,7 @@
         <v>42735</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>107</v>
@@ -53505,10 +53404,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53520,13 +53419,13 @@
         <v>240</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="BS228" s="3">
         <v>102</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53538,7 +53437,7 @@
         <v>111</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>124</v>
@@ -53547,16 +53446,16 @@
         <v>112</v>
       </c>
       <c r="CC228" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="CD228" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="CE228" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="CG228" s="1" t="s">
         <v>3042</v>
-      </c>
-      <c r="CD228" s="1" t="s">
-        <v>3043</v>
-      </c>
-      <c r="CE228" s="1" t="s">
-        <v>3044</v>
-      </c>
-      <c r="CG228" s="1" t="s">
-        <v>3045</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>130</v>
@@ -53597,16 +53496,16 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="Q229" s="3">
         <v>25379</v>
@@ -53639,7 +53538,7 @@
         <v>39800</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>253</v>
@@ -53693,10 +53592,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53708,13 +53607,13 @@
         <v>1735</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BS229" s="3">
         <v>35915</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53744,10 +53643,10 @@
         <v>674</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>130</v>
@@ -53770,7 +53669,7 @@
         <v>131</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>112</v>
@@ -53782,22 +53681,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="Q230" s="3">
         <v>17470</v>
@@ -53827,7 +53726,7 @@
         <v>43100</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>107</v>
@@ -53884,10 +53783,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>118</v>
@@ -53896,7 +53795,7 @@
         <v>106</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53920,16 +53819,16 @@
         <v>112</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>130</v>
@@ -53952,7 +53851,7 @@
         <v>131</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>112</v>
@@ -53964,22 +53863,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="Q231" s="3">
         <v>23356</v>
@@ -54009,7 +53908,7 @@
         <v>43105</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>107</v>
@@ -54063,10 +53962,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -54078,13 +53977,13 @@
         <v>102</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BS231" s="3">
         <v>34412</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -54093,7 +53992,7 @@
         <v>0</v>
       </c>
       <c r="BZ231" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="CA231" s="1" t="s">
         <v>124</v>
@@ -54102,16 +54001,16 @@
         <v>112</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="CD231" s="1" t="s">
         <v>2422</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -54128,13 +54027,13 @@
         <v>88</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>2534</v>
-      </c>
       <c r="E232" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>92</v>
@@ -54146,22 +54045,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="Q232" s="3">
         <v>17726</v>
@@ -54197,7 +54096,7 @@
         <v>43312</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>253</v>
@@ -54248,7 +54147,7 @@
         <v>112</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BB232" s="1">
         <v>0</v>
@@ -54257,10 +54156,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -54269,7 +54168,7 @@
         <v>106</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -54278,7 +54177,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>124</v>
@@ -54287,16 +54186,16 @@
         <v>112</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>942</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>130</v>
@@ -54319,7 +54218,7 @@
         <v>131</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -54331,22 +54230,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="Q233" s="3">
         <v>17041</v>
@@ -54376,7 +54275,7 @@
         <v>42735</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
@@ -54433,7 +54332,7 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54442,7 +54341,7 @@
         <v>106</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54454,7 +54353,7 @@
         <v>111</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -54463,13 +54362,13 @@
         <v>112</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CG233" s="1" t="s">
         <v>130</v>
@@ -54489,13 +54388,13 @@
         <v>88</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>2534</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>112</v>
@@ -54507,22 +54406,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="Q234" s="3">
         <v>30147</v>
@@ -54548,17 +54447,12 @@
       <c r="AA234" s="1">
         <v>0</v>
       </c>
-      <c r="AC234" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD234" s="1" t="s">
-        <v>2861</v>
-      </c>
+      <c r="AC234" s="3"/>
       <c r="AF234" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>387</v>
@@ -54606,10 +54500,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54621,13 +54515,13 @@
         <v>102</v>
       </c>
       <c r="BR234" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BS234" s="3">
         <v>37124</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54636,7 +54530,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>124</v>
@@ -54645,16 +54539,16 @@
         <v>112</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CD234" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>130</v>
@@ -54695,16 +54589,16 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="Q235" s="3">
         <v>17821</v>
@@ -54743,7 +54637,7 @@
         <v>43388</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
@@ -54794,25 +54688,25 @@
         <v>112</v>
       </c>
       <c r="AZ235" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="BB235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD235" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="BE235" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="BF235" s="1" t="s">
         <v>3112</v>
       </c>
-      <c r="BB235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD235" s="1" t="s">
+      <c r="BH235" s="1" t="s">
         <v>3113</v>
-      </c>
-      <c r="BE235" s="1" t="s">
-        <v>3114</v>
-      </c>
-      <c r="BF235" s="1" t="s">
-        <v>3115</v>
-      </c>
-      <c r="BH235" s="1" t="s">
-        <v>3116</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54821,7 +54715,7 @@
         <v>106</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54839,16 +54733,16 @@
         <v>112</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="CD235" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="CE235" s="1" t="s">
         <v>514</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>130</v>
@@ -54889,16 +54783,16 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
@@ -54934,7 +54828,7 @@
         <v>43980</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -54988,10 +54882,10 @@
         <v>20</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -55003,13 +54897,13 @@
         <v>1735</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BS236" s="3">
         <v>35915</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -55033,7 +54927,7 @@
         <v>674</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="CG236" s="1" t="s">
         <v>1940</v>
@@ -55053,10 +54947,10 @@
         <v>88</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>154</v>
@@ -55071,22 +54965,22 @@
         <v>94</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -55122,7 +55016,7 @@
         <v>44135</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -55179,10 +55073,10 @@
         <v>20</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
@@ -55191,7 +55085,7 @@
         <v>106</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -55200,7 +55094,7 @@
         <v>0</v>
       </c>
       <c r="BZ237" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="CA237" s="1" t="s">
         <v>124</v>
@@ -55212,10 +55106,10 @@
         <v>1331</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="CG237" s="1" t="s">
         <v>1940</v>
@@ -55232,10 +55126,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1305</v>
@@ -55250,7 +55144,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1305</v>
@@ -55259,19 +55153,19 @@
         <v>154</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="Q238" s="3">
         <v>20466</v>
@@ -55319,7 +55213,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55352,19 +55246,19 @@
         <v>21</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55382,16 +55276,16 @@
         <v>112</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>323</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55405,10 +55299,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1305</v>
@@ -55423,7 +55317,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1305</v>
@@ -55432,19 +55326,19 @@
         <v>154</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="Q239" s="3">
         <v>24006</v>
@@ -55489,7 +55383,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -55525,19 +55419,19 @@
         <v>21</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55564,10 +55458,10 @@
         <v>1124</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55581,10 +55475,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1305</v>
@@ -55599,7 +55493,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1305</v>
@@ -55608,19 +55502,19 @@
         <v>154</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="Q240" s="3">
         <v>26193</v>
@@ -55665,7 +55559,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55701,19 +55595,19 @@
         <v>21</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55734,16 +55628,16 @@
         <v>112</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>3164</v>
-      </c>
-      <c r="CD240" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>3166</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>3167</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55757,10 +55651,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1305</v>
@@ -55775,7 +55669,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1305</v>
@@ -55784,19 +55678,19 @@
         <v>154</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="Q241" s="3">
         <v>24325</v>
@@ -55877,19 +55771,19 @@
         <v>21</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55910,7 +55804,7 @@
         <v>112</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>616</v>
@@ -55919,7 +55813,7 @@
         <v>514</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -55933,10 +55827,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1305</v>
@@ -55951,7 +55845,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1305</v>
@@ -55960,19 +55854,19 @@
         <v>154</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="Q242" s="3">
         <v>24848</v>
@@ -56020,7 +55914,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -56056,19 +55950,19 @@
         <v>21</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -56092,13 +55986,13 @@
         <v>497</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -56112,10 +56006,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1305</v>
@@ -56130,7 +56024,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1305</v>
@@ -56139,19 +56033,19 @@
         <v>154</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="Q243" s="3">
         <v>27702</v>
@@ -56232,19 +56126,19 @@
         <v>21</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -56265,16 +56159,16 @@
         <v>112</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>631</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -56288,10 +56182,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1305</v>
@@ -56306,7 +56200,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1305</v>
@@ -56315,19 +56209,19 @@
         <v>154</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="Q244" s="3">
         <v>23289</v>
@@ -56375,7 +56269,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56411,19 +56305,19 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56444,16 +56338,16 @@
         <v>112</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -56467,10 +56361,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1305</v>
@@ -56485,7 +56379,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1305</v>
@@ -56494,19 +56388,19 @@
         <v>154</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="Q245" s="3">
         <v>16546</v>
@@ -56554,7 +56448,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56590,19 +56484,19 @@
         <v>21</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56626,13 +56520,13 @@
         <v>1034</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56646,10 +56540,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1305</v>
@@ -56664,7 +56558,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1305</v>
@@ -56673,10 +56567,10 @@
         <v>154</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56718,7 +56612,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56754,7 +56648,7 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
@@ -56778,7 +56672,7 @@
         <v>112</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="CG246" s="1" t="s">
         <v>130</v>
@@ -56795,10 +56689,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1305</v>
@@ -56813,7 +56707,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1305</v>
@@ -56822,19 +56716,19 @@
         <v>154</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2357</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="Q247" s="3">
         <v>23611</v>
@@ -56879,7 +56773,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56912,19 +56806,19 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56942,16 +56836,16 @@
         <v>112</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3229</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3230</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3231</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3232</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -56965,10 +56859,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1305</v>
@@ -56983,7 +56877,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1305</v>
@@ -56992,13 +56886,13 @@
         <v>154</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -57082,19 +56976,19 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -57115,16 +57009,16 @@
         <v>2294</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3239</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3240</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3242</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -57138,10 +57032,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1305</v>
@@ -57156,7 +57050,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1305</v>
@@ -57165,19 +57059,19 @@
         <v>154</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="Q249" s="3">
         <v>18056</v>
@@ -57255,19 +57149,19 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57288,13 +57182,13 @@
         <v>1246</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57308,10 +57202,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1305</v>
@@ -57326,7 +57220,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1305</v>
@@ -57335,19 +57229,19 @@
         <v>154</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="Q250" s="3">
         <v>26349</v>
@@ -57392,7 +57286,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -57428,19 +57322,19 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57461,16 +57355,16 @@
         <v>112</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57484,10 +57378,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1305</v>
@@ -57502,7 +57396,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1305</v>
@@ -57511,19 +57405,19 @@
         <v>154</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="Q251" s="3">
         <v>30589</v>
@@ -57571,7 +57465,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57607,19 +57501,19 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57640,16 +57534,16 @@
         <v>112</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3271</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3272</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3273</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3274</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57663,10 +57557,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1305</v>
@@ -57681,7 +57575,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1305</v>
@@ -57690,19 +57584,19 @@
         <v>154</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="Q252" s="3">
         <v>27354</v>
@@ -57750,7 +57644,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57786,19 +57680,19 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57819,16 +57713,16 @@
         <v>112</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3282</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3283</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3284</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3285</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -57842,10 +57736,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1305</v>
@@ -57860,7 +57754,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1305</v>
@@ -57869,19 +57763,19 @@
         <v>154</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="Q253" s="3">
         <v>13756</v>
@@ -57968,7 +57862,7 @@
         <v>21</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
@@ -57995,10 +57889,10 @@
         <v>112</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>226</v>
@@ -58018,10 +57912,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1305</v>
@@ -58036,7 +57930,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1305</v>
@@ -58045,19 +57939,19 @@
         <v>154</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="Q254" s="3">
         <v>26074</v>
@@ -58105,7 +57999,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -58141,25 +58035,25 @@
         <v>21</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW254" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="BX254" s="1">
         <v>0</v>
@@ -58177,16 +58071,16 @@
         <v>112</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>1314</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58200,10 +58094,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1305</v>
@@ -58218,7 +58112,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1305</v>
@@ -58227,19 +58121,19 @@
         <v>154</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="Q255" s="3">
         <v>28808</v>
@@ -58284,7 +58178,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -58320,19 +58214,19 @@
         <v>21</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58353,16 +58247,16 @@
         <v>112</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58376,10 +58270,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1305</v>
@@ -58394,7 +58288,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1305</v>
@@ -58403,19 +58297,19 @@
         <v>154</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>138</v>
@@ -58439,7 +58333,7 @@
         <v>107</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>387</v>
@@ -58454,7 +58348,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58484,19 +58378,19 @@
         <v>21</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58514,16 +58408,16 @@
         <v>112</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>323</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58537,10 +58431,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1305</v>
@@ -58555,7 +58449,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1305</v>
@@ -58564,19 +58458,19 @@
         <v>154</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="R257" s="1" t="s">
         <v>138</v>
@@ -58654,19 +58548,19 @@
         <v>21</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58684,16 +58578,16 @@
         <v>112</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3330</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3331</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3332</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3333</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58707,10 +58601,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1305</v>
@@ -58725,7 +58619,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1305</v>
@@ -58734,19 +58628,19 @@
         <v>154</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="Q258" s="3">
         <v>29466</v>
@@ -58827,19 +58721,19 @@
         <v>21</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58857,16 +58751,16 @@
         <v>112</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3341</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3342</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3343</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3344</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58880,10 +58774,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1305</v>
@@ -58898,7 +58792,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1305</v>
@@ -58907,22 +58801,22 @@
         <v>154</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="Q259" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>138</v>
@@ -58964,7 +58858,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -58997,19 +58891,19 @@
         <v>21</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -59027,16 +58921,16 @@
         <v>112</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3353</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3354</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3355</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3356</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -59077,19 +58971,19 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P260" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="Q260" s="3">
         <v>31561</v>
@@ -59173,13 +59067,13 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -59188,7 +59082,7 @@
         <v>106</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -59218,10 +59112,10 @@
         <v>1297</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -59262,19 +59156,19 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="Q261" s="3">
         <v>32847</v>
@@ -59358,13 +59252,13 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -59379,13 +59273,13 @@
         <v>168</v>
       </c>
       <c r="BR261" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="BS261" s="3">
         <v>5347</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -59409,16 +59303,16 @@
         <v>112</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="CD261" s="1" t="s">
         <v>467</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -59459,19 +59353,19 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="Q262" s="3">
         <v>29297</v>
@@ -59552,13 +59446,13 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
@@ -59567,13 +59461,13 @@
         <v>240</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="BS262" s="3">
         <v>5480</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59600,13 +59494,13 @@
         <v>483</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -59647,10 +59541,10 @@
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -59680,10 +59574,10 @@
         <v>107</v>
       </c>
       <c r="AG263" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="AH263" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="AJ263" s="1" t="s">
         <v>110</v>
@@ -59731,7 +59625,7 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
@@ -59761,7 +59655,7 @@
         <v>92</v>
       </c>
       <c r="CC263" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="CG263" s="1" t="s">
         <v>130</v>
@@ -59805,19 +59699,19 @@
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P264" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="Q264" s="3">
         <v>21029</v>
@@ -59850,10 +59744,10 @@
         <v>107</v>
       </c>
       <c r="AG264" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="AH264" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="AI264" s="1" t="s">
         <v>112</v>
@@ -59904,19 +59798,19 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -59931,7 +59825,7 @@
         <v>111</v>
       </c>
       <c r="BZ264" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="CA264" s="1" t="s">
         <v>124</v>
@@ -59940,16 +59834,16 @@
         <v>92</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -59990,16 +59884,16 @@
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -60035,13 +59929,13 @@
         <v>43847</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG265" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="AH265" s="1" t="s">
         <v>2027</v>
@@ -60086,7 +59980,7 @@
         <v>112</v>
       </c>
       <c r="AZ265" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BB265" s="1">
         <v>2</v>
@@ -60095,10 +59989,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
@@ -60110,13 +60004,13 @@
         <v>119</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="BS265" s="3">
         <v>34808</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -60134,13 +60028,13 @@
         <v>112</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="CG265" s="1" t="s">
         <v>1940</v>
@@ -60157,10 +60051,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1305</v>
@@ -60184,16 +60078,16 @@
         <v>154</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -60250,7 +60144,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -60280,7 +60174,7 @@
         <v>112</v>
       </c>
       <c r="AZ266" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="BB266" s="1">
         <v>2</v>
@@ -60289,13 +60183,13 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -60313,13 +60207,13 @@
         <v>112</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="CG266" s="1" t="s">
         <v>130</v>
@@ -60363,16 +60257,16 @@
         <v>96</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -60411,7 +60305,7 @@
         <v>44246</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>107</v>
@@ -60468,10 +60362,10 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
@@ -60480,7 +60374,7 @@
         <v>106</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -60504,13 +60398,13 @@
         <v>112</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="CD267" s="1" t="s">
         <v>147</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="CG267" s="1" t="s">
         <v>130</v>
@@ -60554,16 +60448,16 @@
         <v>96</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
@@ -60602,7 +60496,7 @@
         <v>44267</v>
       </c>
       <c r="AD268" s="1" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="AF268" s="1" t="s">
         <v>107</v>
@@ -60659,10 +60553,10 @@
         <v>21</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
@@ -60674,13 +60568,13 @@
         <v>119</v>
       </c>
       <c r="BR268" s="1" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="BS268" s="3">
         <v>35711</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -60704,7 +60598,7 @@
         <v>396</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="CG268" s="1" t="s">
         <v>130</v>
@@ -60748,16 +60642,16 @@
         <v>96</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -60793,16 +60687,16 @@
         <v>44255</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG269" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="AH269" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="AJ269" s="1" t="s">
         <v>110</v>
@@ -60850,10 +60744,10 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
@@ -60862,13 +60756,13 @@
         <v>240</v>
       </c>
       <c r="BR269" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="BS269" s="3">
         <v>2302</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -60892,13 +60786,13 @@
         <v>92</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="CG269" s="1" t="s">
         <v>130</v>
@@ -60942,16 +60836,16 @@
         <v>96</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
@@ -60984,7 +60878,7 @@
         <v>44316</v>
       </c>
       <c r="AD270" s="1" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="AF270" s="1" t="s">
         <v>107</v>
@@ -61041,10 +60935,10 @@
         <v>21</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
@@ -61056,13 +60950,13 @@
         <v>240</v>
       </c>
       <c r="BR270" s="1" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="BS270" s="3">
         <v>35108</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -61080,16 +60974,16 @@
         <v>112</v>
       </c>
       <c r="CC270" s="1" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="CD270" s="1" t="s">
         <v>2044</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="CG270" s="1" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -61099,6 +60993,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI270" xr:uid="{E23B472C-9267-40BC-ABE9-B1716CF91FAC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>